--- a/data/output_data/Data_Scientist_Exercise_File.xlsx
+++ b/data/output_data/Data_Scientist_Exercise_File.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EXERCISE_OUTPUT_FILE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
